--- a/src/irmir-wykaz-gtfs-prod.xlsx
+++ b/src/irmir-wykaz-gtfs-prod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\irmir-supergtfs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B7D53C-B40D-4884-B9C6-03324BA40627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168FC0DB-F6CE-4CF2-8EDD-4B3089394389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCF09D36-6799-46E4-854A-9DCBFC81A430}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>"PKP Intercity" S.A. </t>
   </si>
@@ -193,13 +193,16 @@
   </si>
   <si>
     <t>KD_google_transit</t>
+  </si>
+  <si>
+    <t>http://ws.kolejewlkp.pl:83/gtfs_kw.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +225,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -615,7 +612,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +772,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/irmir-wykaz-gtfs-prod.xlsx
+++ b/src/irmir-wykaz-gtfs-prod.xlsx
@@ -197,7 +197,7 @@
     <t xml:space="preserve">SKMT</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.skm.pkp.pl/gtfs-mi-kpd.zip</t>
+    <t xml:space="preserve">gtfs-mi-kpd</t>
   </si>
   <si>
     <t xml:space="preserve">Koleje Wielkopolskie sp. z o.o. </t>
@@ -338,11 +338,11 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.43"/>

--- a/src/irmir-wykaz-gtfs-prod.xlsx
+++ b/src/irmir-wykaz-gtfs-prod.xlsx
@@ -338,8 +338,8 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,7 +488,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>32</v>
